--- a/05 테스팅/테스트케이스_4_A4.xlsx
+++ b/05 테스팅/테스트케이스_4_A4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\18-1_4_A4_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB1E412E-2B58-49D7-8207-A4EBCAE5E601}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB7AE252-A2A4-4F02-90E5-4A876CD0056B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,56 +1240,56 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,12 +1630,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
@@ -1661,7 +1661,7 @@
       <c r="B9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>198</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -1902,1410 +1902,1410 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="23"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37" t="s">
+      <c r="F37" s="36"/>
+      <c r="G37" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="26" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="37"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="37"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="37"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="37"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="37"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="36"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="37"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="36"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="37"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="37"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="36"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="36"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="28"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05 테스팅/테스트케이스_4_A4.xlsx
+++ b/05 테스팅/테스트케이스_4_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\18-1_4_A4_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB7AE252-A2A4-4F02-90E5-4A876CD0056B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{149987E2-AC85-402B-BEFF-8F73EF42E602}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="222">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +840,70 @@
   </si>
   <si>
     <t>1.3v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류검토 및 최종수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID입력이 되있고 PW가 공란이면, PW를 입력해 달라는 오류 메시지를 출력한다.(결함해결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 창에서 공란이 존재 한다면, 오류 메시지를 출력한다.(결함해결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 과목명을 입력했을 때 오류 메시지를 출력한다.(결함해결)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,6 +1350,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1608,7 +1675,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="J18:K19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1630,12 +1697,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17"/>
@@ -1711,16 +1778,32 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
+      <c r="A13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -1821,8 +1904,8 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1858,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2185,7 +2268,9 @@
       <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
@@ -2215,7 +2300,9 @@
       <c r="J17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="22" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="18" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
@@ -2405,7 +2492,9 @@
       <c r="J23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
@@ -3031,41 +3120,101 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="36"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="36"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="36"/>
+    <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B44" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="B45" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B46" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="36"/>
@@ -3310,7 +3459,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74 I8:I43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74 I8:I46" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/05 테스팅/테스트케이스_4_A4.xlsx
+++ b/05 테스팅/테스트케이스_4_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\18-1_4_A4_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{149987E2-AC85-402B-BEFF-8F73EF42E602}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1963CD55-F88B-41B7-90FE-412E5EDA6AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/05 테스팅/테스트케이스_4_A4.xlsx
+++ b/05 테스팅/테스트케이스_4_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\18-1_4_A4_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1963CD55-F88B-41B7-90FE-412E5EDA6AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83462297-F1CF-467C-A56E-055E71FEF74C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
